--- a/project report/billable.xlsx
+++ b/project report/billable.xlsx
@@ -161,7 +161,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6h</t>
+          <t>44h 30m</t>
         </is>
       </c>
     </row>
@@ -173,12 +173,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t/>
+          <t>8h</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8h</t>
+          <t>12h</t>
         </is>
       </c>
     </row>
@@ -195,7 +195,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>38h 30m</t>
+          <t>130h</t>
         </is>
       </c>
     </row>
@@ -212,7 +212,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>8h 30m</t>
         </is>
       </c>
     </row>
@@ -229,7 +229,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9h 20m</t>
+          <t>13h 50m</t>
         </is>
       </c>
     </row>
@@ -246,41 +246,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>2h 20m</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ConstructionOps</t>
+          <t>AWS_TopStopStores</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18h</t>
+          <t/>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25h 20m</t>
+          <t>3h</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DG-Energetic</t>
+          <t>ConstructionOps</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t/>
+          <t>77h</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4h</t>
+          <t>104h 42m</t>
         </is>
       </c>
     </row>
@@ -292,58 +292,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13h</t>
+          <t>16h</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12h 30m</t>
+          <t>38h 50m</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ODeX Global</t>
+          <t>GLyfe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17h</t>
+          <t/>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23h 50m</t>
+          <t>12h</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OneCare 2.0</t>
+          <t>HealthLake</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>152h</t>
+          <t/>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>42h 35m</t>
+          <t>5h</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OneCare Issues</t>
+          <t>Mesob</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t/>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -355,58 +355,58 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OpenWorld</t>
+          <t>ODeX Global</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t/>
+          <t>86h 30m</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3h 50m</t>
+          <t>89h 10m</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>OneCare 2.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t/>
+          <t>338h</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>238h</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Resources Tasks</t>
+          <t>OneCare Issues</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t/>
+          <t>103h</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16h</t>
+          <t>45h 15m</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>OneData Internal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -416,75 +416,143 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9h</t>
+          <t>16h 30m</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UI/UX &amp; Digital Marketing</t>
+          <t>OpenWorld</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>136h</t>
+          <t/>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>18h</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20m</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Resources Tasks</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>64h</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SDP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6h</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UI/UX &amp; Digital Marketing</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>192h</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>69h 30m</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>UPSKILLED-LMS</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>28h 30m</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>62h 15m</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Veslrisk</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>5h 30m</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>57h</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>77h 40m</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>Total:</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr">
-        <is>
-          <t>340h</t>
-        </is>
-      </c>
-      <c r="C21" s="11" t="inlineStr">
-        <is>
-          <t>263h 15m</t>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>879h 30m</t>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <t>1062h 22m</t>
         </is>
       </c>
     </row>
